--- a/Analog Frontend Resistor calc.xlsx
+++ b/Analog Frontend Resistor calc.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-galgo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\DigitalScope\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7332" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="adder_theoretical" sheetId="1" r:id="rId1"/>
+    <sheet name="adder_parctical" sheetId="3" r:id="rId2"/>
+    <sheet name="transfer func" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>m</t>
   </si>
@@ -48,13 +50,79 @@
   </si>
   <si>
     <t>vref</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>Vref</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>R1'</t>
+  </si>
+  <si>
+    <t>R2'</t>
+  </si>
+  <si>
+    <t>R'</t>
+  </si>
+  <si>
+    <t>Vin(Vout,G,Vref)</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Vout,buffer</t>
+  </si>
+  <si>
+    <t>Vpp</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>Ohm</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>Consts</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>vin</t>
+  </si>
+  <si>
+    <t>vout</t>
+  </si>
+  <si>
+    <t>vin_calc</t>
+  </si>
+  <si>
+    <t>diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +130,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,8 +183,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,6 +206,1000 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>vincalc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'transfer func'!$C$21:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transfer func'!$A$21:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>vin</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'transfer func'!$C$21:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transfer func'!$C$21:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>diff</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'transfer func'!$D$21:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.96900000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="502019672"/>
+        <c:axId val="502020456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="502019672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502020456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="502020456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502019672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,13 +1467,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,7 +1482,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -390,7 +1490,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>3</v>
       </c>
@@ -398,7 +1498,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>4</v>
       </c>
@@ -406,7 +1506,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>5</v>
       </c>
@@ -414,7 +1514,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>6</v>
       </c>
@@ -422,7 +1522,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>7</v>
       </c>
@@ -430,7 +1530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -446,7 +1546,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -466,4 +1566,413 @@
   </scenarios>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>5/60</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f>F5/(F4+F5)*F10</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f>(F6+F7)/(F7)</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f>F8*F4/(F4+F5)*F10</f>
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <f>K3/(K3+K4)</f>
+        <v>0.9372780916351936</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>149150</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <f>K4/(K4+K3)</f>
+        <v>6.2721908364806359E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <f>(B3-B5*B4*E3*E5)/(B5*E4*E5)</f>
+        <v>11.007523473141884</v>
+      </c>
+      <c r="H4" s="4">
+        <f>G4-0.94</f>
+        <v>10.067523473141884</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2">
+        <v>9981</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <f>(K5+K6)/K6</f>
+        <v>1.3372480982250101</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>50540</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <f>E4*E5</f>
+        <v>8.3874752677880651E-2</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2">
+        <v>149860</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <f>B4*E3*E5</f>
+        <v>2.5067466910942588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>-10</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <f>A11*$E$6+$E$7</f>
+        <v>1.6679991643154524</v>
+      </c>
+      <c r="E11" s="4">
+        <f>D11*$B$5</f>
+        <v>1.6679991643154524</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12:D15" si="0">A12*$E$6+$E$7</f>
+        <v>3.3454942178730653</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" ref="E12:E15" si="1">D12*$B$5</f>
+        <v>3.3454942178730653</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6">
+        <f>D12-D11</f>
+        <v>1.677495053557613</v>
+      </c>
+      <c r="E13" s="6">
+        <f>E12-E11</f>
+        <v>1.677495053557613</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="B21">
+        <v>2.63</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="D21">
+        <f>A21-C21</f>
+        <v>0.96900000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2.78</v>
+      </c>
+      <c r="B22">
+        <v>2.74</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D26" si="2">A22-C22</f>
+        <v>0.7799999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4.9269999999999996</v>
+      </c>
+      <c r="B23">
+        <v>2.92</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0.9269999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5.88</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0.87999999999999989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>9.0990000000000002</v>
+      </c>
+      <c r="B25">
+        <v>3.27</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>1.0990000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>3.43</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A21:C25">
+    <sortCondition ref="C21"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Analog Frontend Resistor calc.xlsx
+++ b/Analog Frontend Resistor calc.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25703"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\DigitalScope\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galgo/Git/DigitalScope/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7332" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27000" windowHeight="15320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="adder_theoretical" sheetId="1" r:id="rId1"/>
     <sheet name="adder_parctical" sheetId="3" r:id="rId2"/>
     <sheet name="transfer func" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>m</t>
   </si>
@@ -116,13 +119,19 @@
   </si>
   <si>
     <t>diff</t>
+  </si>
+  <si>
+    <t>PGA transfer</t>
+  </si>
+  <si>
+    <t>gain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +143,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,10 +205,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -191,8 +234,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -268,19 +331,19 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -292,22 +355,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.4690000000000001</c:v>
+                  <c:v>1.469</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9269999999999996</c:v>
+                  <c:v>4.927</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0990000000000002</c:v>
+                  <c:v>9.099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -354,19 +417,19 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -381,19 +444,19 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -437,22 +500,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.96900000000000008</c:v>
+                  <c:v>0.969</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7799999999999998</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9269999999999996</c:v>
+                  <c:v>0.927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87999999999999989</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0990000000000002</c:v>
+                  <c:v>1.099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -469,11 +532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502019672"/>
-        <c:axId val="502020456"/>
+        <c:axId val="2103951232"/>
+        <c:axId val="2104055520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="502019672"/>
+        <c:axId val="2103951232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -516,7 +579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502020456"/>
+        <c:crossAx val="2104055520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -524,7 +587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502020456"/>
+        <c:axId val="2104055520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -575,7 +638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502019672"/>
+        <c:crossAx val="2103951232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1471,9 +1534,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1545,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1490,7 +1553,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>3</v>
       </c>
@@ -1498,7 +1561,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>4</v>
       </c>
@@ -1506,7 +1569,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>5</v>
       </c>
@@ -1514,7 +1577,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>6</v>
       </c>
@@ -1522,7 +1585,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>7</v>
       </c>
@@ -1530,7 +1593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1609,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1576,9 +1639,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1650,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1595,7 +1658,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>3</v>
       </c>
@@ -1603,7 +1666,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>4</v>
       </c>
@@ -1611,7 +1674,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>5</v>
       </c>
@@ -1619,7 +1682,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>6</v>
       </c>
@@ -1627,7 +1690,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>7</v>
       </c>
@@ -1635,7 +1698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1714,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1667,19 +1730,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L26"/>
+  <dimension ref="A2:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1690,19 +1753,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>3.43</v>
+        <v>2.0979999999999999</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2">
         <f>K3/(K3+K4)</f>
-        <v>0.9372780916351936</v>
+        <v>0.93764888788585476</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>14</v>
@@ -1711,14 +1774,17 @@
       <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="2">
-        <v>149150</v>
+      <c r="K3">
+        <v>149570</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>149570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1730,31 +1796,37 @@
       </c>
       <c r="E4" s="2">
         <f>K4/(K4+K3)</f>
-        <v>6.2721908364806359E-2</v>
+        <v>6.2351112114145291E-2</v>
       </c>
       <c r="G4" s="4">
         <f>(B3-B5*B4*E3*E5)/(B5*E4*E5)</f>
-        <v>11.007523473141884</v>
+        <v>-4.8200615853570783</v>
       </c>
       <c r="H4" s="4">
-        <f>G4-0.94</f>
-        <v>10.067523473141884</v>
+        <f>G4</f>
+        <v>-4.8200615853570783</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2">
-        <v>9981</v>
+        <v>9946</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>9946</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1762,46 +1834,82 @@
       </c>
       <c r="E5" s="2">
         <f>(K5+K6)/K6</f>
-        <v>1.3372480982250101</v>
+        <v>1.3322651712397355</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="2">
-        <v>50540</v>
+        <v>49770</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>49770</v>
+      </c>
+      <c r="P5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="2">
         <f>E4*E5</f>
-        <v>8.3874752677880651E-2</v>
+        <v>8.306821505773973E-2</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="2">
-        <v>149860</v>
+        <v>149790</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>149790</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="2">
         <f>B4*E3*E5</f>
-        <v>2.5067466910942588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.4983939123639916</v>
+      </c>
+      <c r="M7">
+        <v>678.8</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8">
+        <f>(Q7-Q6)*Q5+Q6</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1815,7 +1923,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>-10</v>
       </c>
@@ -1823,47 +1931,47 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4">
         <f>A11*$E$6+$E$7</f>
-        <v>1.6679991643154524</v>
+        <v>1.6677117617865942</v>
       </c>
       <c r="E11" s="4">
         <f>D11*$B$5</f>
-        <v>1.6679991643154524</v>
+        <v>1.6677117617865942</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
-        <f t="shared" ref="D12:D15" si="0">A12*$E$6+$E$7</f>
-        <v>3.3454942178730653</v>
+        <f t="shared" ref="D12" si="0">A12*$E$6+$E$7</f>
+        <v>3.3290760629413887</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" ref="E12:E15" si="1">D12*$B$5</f>
-        <v>3.3454942178730653</v>
+        <f t="shared" ref="E12" si="1">D12*$B$5</f>
+        <v>3.3290760629413887</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6">
         <f>D12-D11</f>
-        <v>1.677495053557613</v>
+        <v>1.6613643011547945</v>
       </c>
       <c r="E13" s="6">
         <f>E12-E11</f>
-        <v>1.677495053557613</v>
+        <v>1.6613643011547945</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1877,7 +1985,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.4690000000000001</v>
       </c>
@@ -1892,7 +2000,7 @@
         <v>0.96900000000000008</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2.78</v>
       </c>
@@ -1907,7 +2015,7 @@
         <v>0.7799999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.9269999999999996</v>
       </c>
@@ -1922,7 +2030,7 @@
         <v>0.9269999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5.88</v>
       </c>
@@ -1937,7 +2045,7 @@
         <v>0.87999999999999989</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9.0990000000000002</v>
       </c>
@@ -1952,7 +2060,7 @@
         <v>1.0990000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>11</v>
       </c>
